--- a/src/test/resources/orProperties.xlsx
+++ b/src/test/resources/orProperties.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>Srno</t>
   </si>
@@ -66,23 +66,123 @@
     <t>css</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>loginButton</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Submit')]</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>tollFreeNumber</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>txtEmail</t>
+  </si>
+  <si>
+    <t>txtPhone</t>
+  </si>
+  <si>
+    <t>txtTollFreeNumber</t>
+  </si>
+  <si>
+    <t>txtDescription</t>
+  </si>
+  <si>
+    <t>txtHours</t>
+  </si>
+  <si>
+    <t>txtWebsite</t>
+  </si>
+  <si>
+    <t>btnSubmit</t>
+  </si>
+  <si>
+    <t>txtName</t>
+  </si>
+  <si>
+    <t>btnLogin</t>
+  </si>
+  <si>
+    <t>txtPassword</t>
+  </si>
+  <si>
+    <t>txtUsername</t>
+  </si>
+  <si>
+    <t>groupType</t>
+  </si>
+  <si>
+    <t>txtGroupType</t>
+  </si>
+  <si>
+    <t>parentName</t>
+  </si>
+  <si>
+    <t>txtParentName</t>
+  </si>
+  <si>
+    <t>txtCity</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>txtState</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>tblTable</t>
+  </si>
+  <si>
+    <t>.//*[@id='container']//tr</t>
+  </si>
+  <si>
+    <t>tblpagination</t>
+  </si>
+  <si>
+    <t>//*[@class='pagination ng-table-pagination pull-left']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +205,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,20 +515,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -435,19 +540,253 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="str">
+        <f>CONCATENATE(A5,", ")</f>
+        <v xml:space="preserve">txtName, </v>
+      </c>
+      <c r="G5" t="str">
+        <f>F5</f>
+        <v xml:space="preserve">txtName, </v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G6" t="str">
+        <f>CONCATENATE(G5,F6)</f>
+        <v xml:space="preserve">txtName, </v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G16" si="0">CONCATENATE(G6,F7)</f>
+        <v xml:space="preserve">txtName, </v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F6:F18" si="1">CONCATENATE(A8,", ")</f>
+        <v xml:space="preserve">txtPhone, </v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, </v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, </v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, </v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, </v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, </v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">txtGroupType, </v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, txtGroupType, </v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">txtParentName, </v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, txtGroupType, txtParentName, </v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">txtCity, </v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, txtGroupType, txtParentName, txtCity, </v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">txtState, </v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">txtName, txtPhone, txtGroupType, txtParentName, txtCity, txtState, </v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">tblTable, </v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">tblpagination, </v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/orProperties.xlsx
+++ b/src/test/resources/orProperties.xlsx
@@ -15,7 +15,7 @@
     <sheet name="PageName1" sheetId="1" r:id="rId1"/>
     <sheet name="PageName2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Srno</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>//*[@class='pagination ng-table-pagination pull-left']</t>
+  </si>
+  <si>
+    <t>btnRightNav</t>
+  </si>
+  <si>
+    <t>//a[@ng-click='toggleOffsidebarVisible()']</t>
+  </si>
+  <si>
+    <t>lstRightnavAcc</t>
+  </si>
+  <si>
+    <t>//*[@class='panel-body box-tree']//span</t>
+  </si>
+  <si>
+    <t>LoginUserName</t>
+  </si>
+  <si>
+    <t>LoginPassword</t>
+  </si>
+  <si>
+    <t>//button[@type='submit']</t>
   </si>
 </sst>
 </file>
@@ -515,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -529,7 +550,7 @@
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -540,22 +561,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -565,16 +604,8 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="str">
-        <f>CONCATENATE(A5,", ")</f>
-        <v xml:space="preserve">txtName, </v>
-      </c>
-      <c r="G5" t="str">
-        <f>F5</f>
-        <v xml:space="preserve">txtName, </v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -584,12 +615,8 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="str">
-        <f>CONCATENATE(G5,F6)</f>
-        <v xml:space="preserve">txtName, </v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -599,12 +626,8 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" t="str">
-        <f t="shared" ref="G7:G16" si="0">CONCATENATE(G6,F7)</f>
-        <v xml:space="preserve">txtName, </v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -614,16 +637,8 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="str">
-        <f t="shared" ref="F6:F18" si="1">CONCATENATE(A8,", ")</f>
-        <v xml:space="preserve">txtPhone, </v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, </v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -633,12 +648,8 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, </v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -648,12 +659,8 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, </v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -663,12 +670,8 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, </v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -678,12 +681,8 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, </v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -693,16 +692,8 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">txtGroupType, </v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, txtGroupType, </v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -712,16 +703,8 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">txtParentName, </v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, txtGroupType, txtParentName, </v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -731,16 +714,8 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">txtCity, </v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, txtGroupType, txtParentName, txtCity, </v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -750,16 +725,8 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">txtState, </v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">txtName, txtPhone, txtGroupType, txtParentName, txtCity, txtState, </v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -769,12 +736,8 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">tblTable, </v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -784,9 +747,27 @@
       <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">tblpagination, </v>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/orProperties.xlsx
+++ b/src/test/resources/orProperties.xlsx
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,10 +547,11 @@
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -561,7 +562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -571,8 +572,12 @@
       <c r="C2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,"=",B2,"~",C2)</f>
+        <v>txtUsername=id~LoginUserName</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -582,8 +587,12 @@
       <c r="C3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D20" si="0">CONCATENATE(A3,"=",B3,"~",C3)</f>
+        <v>txtPassword=id~LoginPassword</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -593,8 +602,12 @@
       <c r="C4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>btnLogin=xpath~//button[@type='submit']</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -604,8 +617,12 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>txtName=name~name</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -615,8 +632,12 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>btnSubmit=xpath~//button[contains(text(),'Submit')]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -626,8 +647,12 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>txtEmail=name~email</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -637,8 +662,12 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>txtPhone=name~phone</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -648,8 +677,12 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>txtTollFreeNumber=name~tollFreeNumber</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -659,8 +692,12 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>txtDescription=name~description</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -670,8 +707,12 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>txtHours=name~hours</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -681,8 +722,12 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>txtWebsite=name~website</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -692,8 +737,12 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>txtGroupType=name~groupType</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -703,8 +752,12 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>txtParentName=name~parentName</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -714,8 +767,12 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>txtCity=name~city</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -725,8 +782,12 @@
       <c r="C16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>txtState=name~state</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -736,8 +797,12 @@
       <c r="C17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>tblTable=xpath~.//*[@id='container']//tr</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -747,8 +812,12 @@
       <c r="C18" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>tblpagination=xpath~//*[@class='pagination ng-table-pagination pull-left']</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -758,8 +827,12 @@
       <c r="C19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>btnRightNav=xpath~//a[@ng-click='toggleOffsidebarVisible()']</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -768,6 +841,10 @@
       </c>
       <c r="C20" t="s">
         <v>46</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>lstRightnavAcc=xpath~//*[@class='panel-body box-tree']//span</v>
       </c>
     </row>
   </sheetData>
